--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872A2066-0C86-4E62-A225-CD0D1A2D61D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5B2166-AF42-4337-BADC-8C004C0B2C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
-  <si>
-    <t>afreen</t>
-  </si>
-  <si>
-    <t>dhinoo</t>
-  </si>
-  <si>
-    <t>adithyan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>aadil</t>
   </si>
@@ -48,25 +39,13 @@
     <t>java</t>
   </si>
   <si>
-    <t>ken</t>
-  </si>
-  <si>
-    <t>emil</t>
-  </si>
-  <si>
-    <t>allen</t>
-  </si>
-  <si>
-    <t>alan</t>
-  </si>
-  <si>
-    <t>aswin</t>
-  </si>
-  <si>
-    <t>cd</t>
-  </si>
-  <si>
-    <t>cg</t>
+    <t>abhin</t>
+  </si>
+  <si>
+    <t>abhinav</t>
+  </si>
+  <si>
+    <t>adarsh</t>
   </si>
 </sst>
 </file>
@@ -384,109 +363,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5B2166-AF42-4337-BADC-8C004C0B2C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68D388C-F63E-47B8-9D17-CD3F84731869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>aadil</t>
   </si>
@@ -46,6 +46,57 @@
   </si>
   <si>
     <t>adarsh</t>
+  </si>
+  <si>
+    <t>adarshti</t>
+  </si>
+  <si>
+    <t>adarshtv</t>
+  </si>
+  <si>
+    <t>adithyan</t>
+  </si>
+  <si>
+    <t>afreen</t>
+  </si>
+  <si>
+    <t>aishwarya</t>
+  </si>
+  <si>
+    <t>ajith</t>
+  </si>
+  <si>
+    <t>akhin</t>
+  </si>
+  <si>
+    <t>ajsal</t>
+  </si>
+  <si>
+    <t>akshays</t>
+  </si>
+  <si>
+    <t>akshayk</t>
+  </si>
+  <si>
+    <t>alfin</t>
+  </si>
+  <si>
+    <t>alan</t>
+  </si>
+  <si>
+    <t>amals</t>
+  </si>
+  <si>
+    <t>alfinl</t>
+  </si>
+  <si>
+    <t>allen</t>
+  </si>
+  <si>
+    <t>allan</t>
+  </si>
+  <si>
+    <t>amalv</t>
   </si>
 </sst>
 </file>
@@ -363,13 +414,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -390,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -401,7 +455,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -419,50 +473,187 @@
       <c r="A5">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68D388C-F63E-47B8-9D17-CD3F84731869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C3694A-12D3-43D5-9884-062E148EA7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C3694A-12D3-43D5-9884-062E148EA7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F7E333-8188-46C6-9656-D93ED62D1808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
-  <si>
-    <t>aadil</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
   <si>
     <t>flat</t>
   </si>
@@ -39,64 +36,199 @@
     <t>java</t>
   </si>
   <si>
-    <t>abhin</t>
-  </si>
-  <si>
-    <t>abhinav</t>
-  </si>
-  <si>
-    <t>adarsh</t>
-  </si>
-  <si>
-    <t>adarshti</t>
-  </si>
-  <si>
-    <t>adarshtv</t>
-  </si>
-  <si>
-    <t>adithyan</t>
-  </si>
-  <si>
-    <t>afreen</t>
-  </si>
-  <si>
-    <t>aishwarya</t>
-  </si>
-  <si>
-    <t>ajith</t>
-  </si>
-  <si>
-    <t>akhin</t>
-  </si>
-  <si>
-    <t>ajsal</t>
-  </si>
-  <si>
-    <t>akshays</t>
-  </si>
-  <si>
-    <t>akshayk</t>
-  </si>
-  <si>
-    <t>alfin</t>
-  </si>
-  <si>
-    <t>alan</t>
-  </si>
-  <si>
-    <t>amals</t>
-  </si>
-  <si>
-    <t>alfinl</t>
-  </si>
-  <si>
-    <t>allen</t>
-  </si>
-  <si>
-    <t>allan</t>
-  </si>
-  <si>
-    <t>amalv</t>
+    <t>rollnum</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>AADIL MOHAMMED SAYAD</t>
+  </si>
+  <si>
+    <t>ABHINAV PADMARAJAN</t>
+  </si>
+  <si>
+    <t>ABHIN MURALI V</t>
+  </si>
+  <si>
+    <t>ADARSH R B</t>
+  </si>
+  <si>
+    <t>ADARSH T ISSAC</t>
+  </si>
+  <si>
+    <t>ADARSH T V</t>
+  </si>
+  <si>
+    <t>ADITHYANARAYANAN S</t>
+  </si>
+  <si>
+    <t>AFREEN POLY</t>
+  </si>
+  <si>
+    <t>AISHWARYAK T</t>
+  </si>
+  <si>
+    <t>AJITH</t>
+  </si>
+  <si>
+    <t>AJSAL IQBAL .E.P</t>
+  </si>
+  <si>
+    <t>AKHIN KEEAZHANGOTE</t>
+  </si>
+  <si>
+    <t>AKSHAY KALARIKAL SAJKUMAR</t>
+  </si>
+  <si>
+    <t>AKSHAY S MENON</t>
+  </si>
+  <si>
+    <t>ALAN R ALAPPAT</t>
+  </si>
+  <si>
+    <t>ALFIN JOHNSON</t>
+  </si>
+  <si>
+    <t>ALFIN LORANCE</t>
+  </si>
+  <si>
+    <t>ALISHA R ALAPPAT</t>
+  </si>
+  <si>
+    <t>ALLAN GEO P</t>
+  </si>
+  <si>
+    <t>AMAL SONY</t>
+  </si>
+  <si>
+    <t>AMAL V</t>
+  </si>
+  <si>
+    <t>ANANTHAKRISHNAN SUDHAKARAN</t>
+  </si>
+  <si>
+    <t>ANITH ELDHO VARGHESE</t>
+  </si>
+  <si>
+    <t>ANN LIA JEEJO</t>
+  </si>
+  <si>
+    <t>ANNROSE PAUL MENACHERY</t>
+  </si>
+  <si>
+    <t>ANUSHA JOSEPH</t>
+  </si>
+  <si>
+    <t>ANZAL AKBAR ALI</t>
+  </si>
+  <si>
+    <t>ARJUN M S</t>
+  </si>
+  <si>
+    <t>ASHVIN ANTO</t>
+  </si>
+  <si>
+    <t>ASNA PT</t>
+  </si>
+  <si>
+    <t>ASWAJITH K</t>
+  </si>
+  <si>
+    <t>ASWATH DEV D</t>
+  </si>
+  <si>
+    <t>ASWIN JOSEPH</t>
+  </si>
+  <si>
+    <t>ASWIN K</t>
+  </si>
+  <si>
+    <t>ATHUL JESTIN</t>
+  </si>
+  <si>
+    <t>ATHULYA K K</t>
+  </si>
+  <si>
+    <t>AUGUSTIN C BENNY</t>
+  </si>
+  <si>
+    <t>CELIA BABU P</t>
+  </si>
+  <si>
+    <t>CHRISTY GEORGE JOSEPH</t>
+  </si>
+  <si>
+    <t>CYRIN DADY</t>
+  </si>
+  <si>
+    <t>DAWN BIJU</t>
+  </si>
+  <si>
+    <t>DHINOO</t>
+  </si>
+  <si>
+    <t>DHIYA V B</t>
+  </si>
+  <si>
+    <t>DIYA SUNIL</t>
+  </si>
+  <si>
+    <t>EDWIN MONCY K</t>
+  </si>
+  <si>
+    <t>ELVIN VINCENT A</t>
+  </si>
+  <si>
+    <t>EMIL ERINJERY</t>
+  </si>
+  <si>
+    <t>FATHIMA RIFA K</t>
+  </si>
+  <si>
+    <t>FIZA SOORAJ KHAN</t>
+  </si>
+  <si>
+    <t>GODWIN JOJA</t>
+  </si>
+  <si>
+    <t>HARIKRISHNA R NAIR</t>
+  </si>
+  <si>
+    <t>HARSHA K A</t>
+  </si>
+  <si>
+    <t>HISHAM N</t>
+  </si>
+  <si>
+    <t>JERALD TOM DAIAZ</t>
+  </si>
+  <si>
+    <t>JISMY JOSE</t>
+  </si>
+  <si>
+    <t>JOEL JOHNSON</t>
+  </si>
+  <si>
+    <t>JOEL JOJO</t>
+  </si>
+  <si>
+    <t>JOYEL P R</t>
+  </si>
+  <si>
+    <t>JYOTHIKA RADHAKRISHNAN</t>
+  </si>
+  <si>
+    <t>KEN T SHINE</t>
+  </si>
+  <si>
+    <t>KIRAN DEV S</t>
+  </si>
+  <si>
+    <t>LABEEB MOHIYADHEEN</t>
   </si>
 </sst>
 </file>
@@ -414,45 +546,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>12012001</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>12012003</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -460,32 +593,32 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>12012002</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>12012004</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>12012005</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -493,21 +626,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>12012006</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>12012007</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -515,21 +648,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>12012008</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>12012009</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -537,126 +670,589 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>12012010</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>12012011</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>12012012</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>12012013</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>12012014</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>12012015</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>12012016</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>12012017</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>12012018</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>12012019</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21</v>
+        <v>12012020</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>12012021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>12012022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12012023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12012024</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12012025</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12012026</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>12012027</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>12012029</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>12012030</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>12012031</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>12012032</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>12012033</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>12012034</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>12012035</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>12012036</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>12012037</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>12012038</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>12012039</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>12012040</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>12012041</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>12012042</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>12012043</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>12012044</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>12012045</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>12012046</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>12012047</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>12012048</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>12012049</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>12012050</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>12012051</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>12012052</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>12012053</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>12012054</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>12012055</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>12012056</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>12012057</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>12012058</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>12012059</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>12012060</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>12012061</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>12012062</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>12012063</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CD767E-06C6-4CDF-984B-D9A461444DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED18A2B-DD93-4E97-90CB-D38545949BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="70">
   <si>
     <t>os</t>
   </si>
@@ -235,12 +235,6 @@
   </si>
   <si>
     <t>abcd</t>
-  </si>
-  <si>
-    <t>seat no</t>
-  </si>
-  <si>
-    <t>class</t>
   </si>
 </sst>
 </file>
@@ -558,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +564,7 @@
     <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -580,14 +574,8 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12012001</v>
       </c>
@@ -598,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12012003</v>
       </c>
@@ -609,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12012002</v>
       </c>
@@ -620,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12012004</v>
       </c>
@@ -631,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12012005</v>
       </c>
@@ -642,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>12012006</v>
       </c>
@@ -653,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12012007</v>
       </c>
@@ -664,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12012008</v>
       </c>
@@ -675,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12012009</v>
       </c>
@@ -686,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12012010</v>
       </c>
@@ -697,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12012011</v>
       </c>
@@ -708,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12012012</v>
       </c>
@@ -719,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12012013</v>
       </c>
@@ -730,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12012014</v>
       </c>
@@ -741,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12012015</v>
       </c>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED18A2B-DD93-4E97-90CB-D38545949BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A602FC0A-3980-41C8-B361-983B40176F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11445" yWindow="0" windowWidth="9045" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -555,7 +555,7 @@
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +588,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>12012003</v>
+        <v>12012002</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>12012002</v>
+        <v>12012003</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A602FC0A-3980-41C8-B361-983B40176F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F703722-A320-4A70-8CDD-26DD38EC8EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11445" yWindow="0" windowWidth="9045" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="csa" sheetId="1" r:id="rId1"/>
+    <sheet name="csb" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="128">
   <si>
     <t>os</t>
   </si>
@@ -228,26 +229,211 @@
     <t>LABEEB MOHIYADHEEN</t>
   </si>
   <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>abcd</t>
+    <t>LAKSHMI M MOHAN</t>
+  </si>
+  <si>
+    <t>LRVIN C P</t>
+  </si>
+  <si>
+    <t>LYNN JOY</t>
+  </si>
+  <si>
+    <t>MALAVIKA BABURAJ</t>
+  </si>
+  <si>
+    <t>MANEESHA D</t>
+  </si>
+  <si>
+    <t>MANU MADHAV S</t>
+  </si>
+  <si>
+    <t>MARIYA BENNY</t>
+  </si>
+  <si>
+    <t>MIDHUN P V</t>
+  </si>
+  <si>
+    <t>MIJEWEL JOSE</t>
+  </si>
+  <si>
+    <t>MILAN TOMY</t>
+  </si>
+  <si>
+    <t>MOHAMMED ANJAL</t>
+  </si>
+  <si>
+    <t>MONAL MOHANDAS C</t>
+  </si>
+  <si>
+    <t>MUHAMMED AJMAL M</t>
+  </si>
+  <si>
+    <t>MUHAMMED ASHIF C</t>
+  </si>
+  <si>
+    <t>MUHAMMED IMRAN M I</t>
+  </si>
+  <si>
+    <t>NAMITHA MARIA E V</t>
+  </si>
+  <si>
+    <t>NANTEZ</t>
+  </si>
+  <si>
+    <t>NAVYA T</t>
+  </si>
+  <si>
+    <t>NIKHIL JOB MATHEW</t>
+  </si>
+  <si>
+    <t>NIKHITHA C</t>
+  </si>
+  <si>
+    <t>NIKHITHA S</t>
+  </si>
+  <si>
+    <t>NIVED RAJ P</t>
+  </si>
+  <si>
+    <t>PHILIPOSE ALEXANDER</t>
+  </si>
+  <si>
+    <t>PRANISH V P</t>
+  </si>
+  <si>
+    <t>PRAVEEN KUMAR S</t>
+  </si>
+  <si>
+    <t>PRAVEEN S</t>
+  </si>
+  <si>
+    <t>RAHUL R</t>
+  </si>
+  <si>
+    <t>RAHUL RENJITH</t>
+  </si>
+  <si>
+    <t>RAICHEL BIJU</t>
+  </si>
+  <si>
+    <t>RESHAB PARAKKADAN</t>
+  </si>
+  <si>
+    <t>RINIYA MARY PRADEEP</t>
+  </si>
+  <si>
+    <t>RISHIKESH V K</t>
+  </si>
+  <si>
+    <t>ROSHNA C P</t>
+  </si>
+  <si>
+    <t>ROSMIN JOHN C</t>
+  </si>
+  <si>
+    <t>RUSSELL GEORGE</t>
+  </si>
+  <si>
+    <t>SAJIN P J</t>
+  </si>
+  <si>
+    <t>SAM P REJI</t>
+  </si>
+  <si>
+    <t>SAMUEL DAVI</t>
+  </si>
+  <si>
+    <t>SANAH K</t>
+  </si>
+  <si>
+    <t>SANDRA JOSEPH</t>
+  </si>
+  <si>
+    <t>SANDRA M A</t>
+  </si>
+  <si>
+    <t>SANJO T S</t>
+  </si>
+  <si>
+    <t>SANJON RION</t>
+  </si>
+  <si>
+    <t>SANJU SIBI</t>
+  </si>
+  <si>
+    <t>SARIN MADHAV M</t>
+  </si>
+  <si>
+    <t>SEBATTINY  JAISON</t>
+  </si>
+  <si>
+    <t>SHAIJO GEORGE</t>
+  </si>
+  <si>
+    <t>S HARIHARAN</t>
+  </si>
+  <si>
+    <t>SHARMMADA A</t>
+  </si>
+  <si>
+    <t>SHERLYN MARY SIJU</t>
+  </si>
+  <si>
+    <t>SISHNA MOHAN K</t>
+  </si>
+  <si>
+    <t>SNEHA C SHAJI</t>
+  </si>
+  <si>
+    <t>SNEHA JIJU</t>
+  </si>
+  <si>
+    <t>SNEHA S</t>
+  </si>
+  <si>
+    <t>SREE HARI P</t>
+  </si>
+  <si>
+    <t>SREESHNA P M</t>
+  </si>
+  <si>
+    <t>SRUTHI P A</t>
+  </si>
+  <si>
+    <t>UMMU HABIBA</t>
+  </si>
+  <si>
+    <t>VISHNU DATH P R</t>
+  </si>
+  <si>
+    <t>VISHNUPRASAD V S</t>
+  </si>
+  <si>
+    <t>YELNA MARY SHIBU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -258,7 +444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -266,15 +452,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1E8DDDAE-C5F4-4773-83EE-61B382374429}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -552,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,162 +1463,709 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>12012064</v>
-      </c>
-      <c r="B64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>12012065</v>
-      </c>
-      <c r="B65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>12012066</v>
-      </c>
-      <c r="B66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>12012067</v>
-      </c>
-      <c r="B67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>12012068</v>
-      </c>
-      <c r="B68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>12012069</v>
-      </c>
-      <c r="B69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>12012070</v>
-      </c>
-      <c r="B70" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>12012071</v>
-      </c>
-      <c r="B71" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>12012072</v>
-      </c>
-      <c r="B72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>12012073</v>
-      </c>
-      <c r="B73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>12012074</v>
-      </c>
-      <c r="B74" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>12012075</v>
-      </c>
-      <c r="B75" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>12012076</v>
-      </c>
-      <c r="B76" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>12012077</v>
-      </c>
-      <c r="B77" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D233C0D7-5BB3-437E-B36E-4DA07BC37037}">
+  <dimension ref="A1:C62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12012064</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12012065</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12012066</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12012067</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12012126</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>12012069</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12012070</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12012071</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12012072</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12012073</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12012074</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12012075</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12012076</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12012077</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12012078</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12012079</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12012080</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12012081</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12012082</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>12012083</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>12012084</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>12012085</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12012086</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12012087</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12012088</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12012089</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>12012090</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>12012091</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>12012092</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>12012093</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>12012094</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>12012095</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>12012096</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>12012097</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>12012098</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>12012100</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>12012101</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>12012102</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>12012103</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>12012104</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>12012105</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>12012106</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>12012107</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>12012108</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>12012109</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>12012110</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>12012111</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>12012099</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>12012113</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>12012114</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>12012115</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>12012116</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>12012117</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>12012118</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>12012119</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>12012120</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>12012121</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>12012122</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>12012123</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>12012124</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>12012125</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F703722-A320-4A70-8CDD-26DD38EC8EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D437FA3-0A81-468D-9B0E-2D1BB5E7D945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1474,7 +1474,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>12012126</v>
+        <v>12012068</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>71</v>
